--- a/src/main/resources/static/excelFile/人工制费维护模板.xlsx
+++ b/src/main/resources/static/excelFile/人工制费维护模板.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjj\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D030131-F0F2-4271-B91B-56F3A4C3D21E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6888" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="人工制费维护" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,7 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
-      <t>工序编号</t>
+      <t>工序名称</t>
     </r>
     <r>
       <rPr>
@@ -36,17 +25,15 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>机台编码</t>
+      <t>机台名称</t>
     </r>
     <r>
       <rPr>
@@ -54,16 +41,22 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 
 人工费率（元/小时）</t>
     </r>
@@ -73,16 +66,22 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 
 制费费率（元/小时）</t>
     </r>
@@ -92,25 +91,29 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,8 +121,158 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,19 +280,11 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +297,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,9 +492,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -174,17 +747,61 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -233,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -442,32 +1059,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="29.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="19.2" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +1094,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelFile/人工制费维护模板.xlsx
+++ b/src/main/resources/static/excelFile/人工制费维护模板.xlsx
@@ -13,8 +13,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dell</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据工序名称所在工作中心自动带出
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不填写则由系统参数带出默认值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>工作中心</t>
+  </si>
   <si>
     <r>
       <t>工序名称</t>
@@ -33,6 +71,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>机台名称</t>
     </r>
     <r>
@@ -74,14 +120,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> 
 制费费率（元/小时）</t>
     </r>
@@ -97,16 +135,20 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> 
+失效时间</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -139,62 +181,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,6 +212,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -230,47 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +318,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -305,19 +345,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,157 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +566,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,15 +613,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,165 +622,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,36 +1105,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="29.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="29.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" customHeight="1" spans="1:4">
+    <row r="1" ht="19.2" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelFile/人工制费维护模板.xlsx
+++ b/src/main/resources/static/excelFile/人工制费维护模板.xlsx
@@ -55,6 +55,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>工序名称</t>
     </r>
     <r>
@@ -120,6 +128,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 
 制费费率（元/小时）</t>
     </r>
@@ -145,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -168,6 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -182,7 +205,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,14 +309,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,98 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -339,84 +355,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,102 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,24 +546,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,6 +575,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,17 +640,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -636,154 +652,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1128,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1118,26 +1138,26 @@
     <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="29.5583333333333" customWidth="1"/>
     <col min="5" max="5" width="29.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.2" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/static/excelFile/人工制费维护模板.xlsx
+++ b/src/main/resources/static/excelFile/人工制费维护模板.xlsx
@@ -27,8 +27,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">根据工序名称所在工作中心自动带出
-</t>
+          <t>工序名称唯一情况下，根据工序名称所在工作中心自动带出。不唯一情况下带上工作中心</t>
         </r>
       </text>
     </comment>
@@ -183,24 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,31 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,48 +221,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +281,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,19 +354,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,97 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,49 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,50 +568,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +590,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -652,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1127,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
